--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntrk3-Ptprf.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntrk3-Ptprf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Ntrk3</t>
+  </si>
+  <si>
+    <t>Ptprf</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Ntrk3</t>
-  </si>
-  <si>
-    <t>Ptprf</t>
-  </si>
-  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.01037766666666667</v>
+        <v>0.02114766666666667</v>
       </c>
       <c r="H2">
-        <v>0.031133</v>
+        <v>0.063443</v>
       </c>
       <c r="I2">
-        <v>0.2396210150393301</v>
+        <v>0.7642906190894964</v>
       </c>
       <c r="J2">
-        <v>0.2396210150393301</v>
+        <v>0.7642906190894964</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2171733333333334</v>
+        <v>0.4211356666666666</v>
       </c>
       <c r="N2">
-        <v>0.6515200000000001</v>
+        <v>1.263407</v>
       </c>
       <c r="O2">
-        <v>0.03179704241434194</v>
+        <v>0.05962259118326733</v>
       </c>
       <c r="P2">
-        <v>0.03179704241434193</v>
+        <v>0.05962259118326733</v>
       </c>
       <c r="Q2">
-        <v>0.002253752462222222</v>
+        <v>0.008906036700111111</v>
       </c>
       <c r="R2">
-        <v>0.02028377216</v>
+        <v>0.080154330301</v>
       </c>
       <c r="S2">
-        <v>0.007619239578573246</v>
+        <v>0.04556898712717933</v>
       </c>
       <c r="T2">
-        <v>0.007619239578573245</v>
+        <v>0.04556898712717933</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.01037766666666667</v>
+        <v>0.02114766666666667</v>
       </c>
       <c r="H3">
-        <v>0.031133</v>
+        <v>0.063443</v>
       </c>
       <c r="I3">
-        <v>0.2396210150393301</v>
+        <v>0.7642906190894964</v>
       </c>
       <c r="J3">
-        <v>0.2396210150393301</v>
+        <v>0.7642906190894964</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +623,22 @@
         <v>16.402974</v>
       </c>
       <c r="O3">
-        <v>0.8005372973958559</v>
+        <v>0.7740876954075475</v>
       </c>
       <c r="P3">
-        <v>0.8005372973958557</v>
+        <v>0.7740876954075474</v>
       </c>
       <c r="Q3">
-        <v>0.05674153217133333</v>
+        <v>0.1156282088313333</v>
       </c>
       <c r="R3">
-        <v>0.5106737895419999</v>
+        <v>1.040653879482</v>
       </c>
       <c r="S3">
-        <v>0.191825559778837</v>
+        <v>0.591627963952596</v>
       </c>
       <c r="T3">
-        <v>0.191825559778837</v>
+        <v>0.5916279639525959</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.01037766666666667</v>
+        <v>0.02114766666666667</v>
       </c>
       <c r="H4">
-        <v>0.031133</v>
+        <v>0.063443</v>
       </c>
       <c r="I4">
-        <v>0.2396210150393301</v>
+        <v>0.7642906190894964</v>
       </c>
       <c r="J4">
-        <v>0.2396210150393301</v>
+        <v>0.7642906190894964</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01599466666666667</v>
+        <v>0.3825986666666667</v>
       </c>
       <c r="N4">
-        <v>0.047984</v>
+        <v>1.147796</v>
       </c>
       <c r="O4">
-        <v>0.002341830309445272</v>
+        <v>0.05416668711649494</v>
       </c>
       <c r="P4">
-        <v>0.002341830309445271</v>
+        <v>0.05416668711649493</v>
       </c>
       <c r="Q4">
-        <v>0.0001659873191111111</v>
+        <v>0.008091069069777778</v>
       </c>
       <c r="R4">
-        <v>0.001493885872</v>
+        <v>0.072819621628</v>
       </c>
       <c r="S4">
-        <v>0.0005611517557991445</v>
+        <v>0.04139909083029296</v>
       </c>
       <c r="T4">
-        <v>0.0005611517557991444</v>
+        <v>0.04139909083029296</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.01037766666666667</v>
+        <v>0.02114766666666667</v>
       </c>
       <c r="H5">
-        <v>0.031133</v>
+        <v>0.063443</v>
       </c>
       <c r="I5">
-        <v>0.2396210150393301</v>
+        <v>0.7642906190894964</v>
       </c>
       <c r="J5">
-        <v>0.2396210150393301</v>
+        <v>0.7642906190894964</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,90 +741,90 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.108915333333333</v>
+        <v>0.7919649999999999</v>
       </c>
       <c r="N5">
-        <v>3.326746</v>
+        <v>2.375895</v>
       </c>
       <c r="O5">
-        <v>0.1623598410850663</v>
+        <v>0.1121230262926903</v>
       </c>
       <c r="P5">
-        <v>0.1623598410850662</v>
+        <v>0.1121230262926903</v>
       </c>
       <c r="Q5">
-        <v>0.01150795369088889</v>
+        <v>0.01674821183166667</v>
       </c>
       <c r="R5">
-        <v>0.103571583218</v>
+        <v>0.150733906485</v>
       </c>
       <c r="S5">
-        <v>0.0389048299224279</v>
+        <v>0.08569457717942812</v>
       </c>
       <c r="T5">
-        <v>0.0389048299224279</v>
+        <v>0.08569457717942812</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.01037766666666667</v>
+        <v>0.006522</v>
       </c>
       <c r="H6">
-        <v>0.031133</v>
+        <v>0.019566</v>
       </c>
       <c r="I6">
-        <v>0.2396210150393301</v>
+        <v>0.2357093809105037</v>
       </c>
       <c r="J6">
-        <v>0.2396210150393301</v>
+        <v>0.2357093809105037</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.020244</v>
+        <v>0.4211356666666666</v>
       </c>
       <c r="N6">
-        <v>0.060732</v>
+        <v>1.263407</v>
       </c>
       <c r="O6">
-        <v>0.002963988795290727</v>
+        <v>0.05962259118326733</v>
       </c>
       <c r="P6">
-        <v>0.002963988795290726</v>
+        <v>0.05962259118326733</v>
       </c>
       <c r="Q6">
-        <v>0.000210085484</v>
+        <v>0.002746646818</v>
       </c>
       <c r="R6">
-        <v>0.001890769356</v>
+        <v>0.024719821362</v>
       </c>
       <c r="S6">
-        <v>0.0007102340036927652</v>
+        <v>0.014053604056088</v>
       </c>
       <c r="T6">
-        <v>0.000710234003692765</v>
+        <v>0.014053604056088</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.02114766666666667</v>
+        <v>0.006522</v>
       </c>
       <c r="H7">
-        <v>0.063443</v>
+        <v>0.019566</v>
       </c>
       <c r="I7">
-        <v>0.4883010328956483</v>
+        <v>0.2357093809105037</v>
       </c>
       <c r="J7">
-        <v>0.4883010328956484</v>
+        <v>0.2357093809105037</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2171733333333334</v>
+        <v>5.467658</v>
       </c>
       <c r="N7">
-        <v>0.6515200000000001</v>
+        <v>16.402974</v>
       </c>
       <c r="O7">
-        <v>0.03179704241434194</v>
+        <v>0.7740876954075475</v>
       </c>
       <c r="P7">
-        <v>0.03179704241434193</v>
+        <v>0.7740876954075474</v>
       </c>
       <c r="Q7">
-        <v>0.004592709262222223</v>
+        <v>0.035660065476</v>
       </c>
       <c r="R7">
-        <v>0.04133438336</v>
+        <v>0.320940589284</v>
       </c>
       <c r="S7">
-        <v>0.01552652865394991</v>
+        <v>0.1824597314549516</v>
       </c>
       <c r="T7">
-        <v>0.01552652865394991</v>
+        <v>0.1824597314549516</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.02114766666666667</v>
+        <v>0.006522</v>
       </c>
       <c r="H8">
-        <v>0.063443</v>
+        <v>0.019566</v>
       </c>
       <c r="I8">
-        <v>0.4883010328956483</v>
+        <v>0.2357093809105037</v>
       </c>
       <c r="J8">
-        <v>0.4883010328956484</v>
+        <v>0.2357093809105037</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.467658</v>
+        <v>0.3825986666666667</v>
       </c>
       <c r="N8">
-        <v>16.402974</v>
+        <v>1.147796</v>
       </c>
       <c r="O8">
-        <v>0.8005372973958559</v>
+        <v>0.05416668711649494</v>
       </c>
       <c r="P8">
-        <v>0.8005372973958557</v>
+        <v>0.05416668711649493</v>
       </c>
       <c r="Q8">
-        <v>0.1156282088313333</v>
+        <v>0.002495308504</v>
       </c>
       <c r="R8">
-        <v>1.040653879482</v>
+        <v>0.022457776536</v>
       </c>
       <c r="S8">
-        <v>0.3909031891898872</v>
+        <v>0.01276759628620198</v>
       </c>
       <c r="T8">
-        <v>0.3909031891898871</v>
+        <v>0.01276759628620198</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,495 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.02114766666666667</v>
+        <v>0.006522</v>
       </c>
       <c r="H9">
-        <v>0.063443</v>
+        <v>0.019566</v>
       </c>
       <c r="I9">
-        <v>0.4883010328956483</v>
+        <v>0.2357093809105037</v>
       </c>
       <c r="J9">
-        <v>0.4883010328956484</v>
+        <v>0.2357093809105037</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.01599466666666667</v>
+        <v>0.7919649999999999</v>
       </c>
       <c r="N9">
-        <v>0.047984</v>
+        <v>2.375895</v>
       </c>
       <c r="O9">
-        <v>0.002341830309445272</v>
+        <v>0.1121230262926903</v>
       </c>
       <c r="P9">
-        <v>0.002341830309445271</v>
+        <v>0.1121230262926903</v>
       </c>
       <c r="Q9">
-        <v>0.0003382498791111111</v>
+        <v>0.00516519573</v>
       </c>
       <c r="R9">
-        <v>0.003044248912</v>
+        <v>0.04648676157</v>
       </c>
       <c r="S9">
-        <v>0.001143518158968462</v>
+        <v>0.02642844911326215</v>
       </c>
       <c r="T9">
-        <v>0.001143518158968462</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.02114766666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.063443</v>
-      </c>
-      <c r="I10">
-        <v>0.4883010328956483</v>
-      </c>
-      <c r="J10">
-        <v>0.4883010328956484</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.108915333333333</v>
-      </c>
-      <c r="N10">
-        <v>3.326746</v>
-      </c>
-      <c r="O10">
-        <v>0.1623598410850663</v>
-      </c>
-      <c r="P10">
-        <v>0.1623598410850662</v>
-      </c>
-      <c r="Q10">
-        <v>0.02345097183088889</v>
-      </c>
-      <c r="R10">
-        <v>0.211058746478</v>
-      </c>
-      <c r="S10">
-        <v>0.07928047810261117</v>
-      </c>
-      <c r="T10">
-        <v>0.07928047810261117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.02114766666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.063443</v>
-      </c>
-      <c r="I11">
-        <v>0.4883010328956483</v>
-      </c>
-      <c r="J11">
-        <v>0.4883010328956484</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M11">
-        <v>0.020244</v>
-      </c>
-      <c r="N11">
-        <v>0.060732</v>
-      </c>
-      <c r="O11">
-        <v>0.002963988795290727</v>
-      </c>
-      <c r="P11">
-        <v>0.002963988795290726</v>
-      </c>
-      <c r="Q11">
-        <v>0.000428113364</v>
-      </c>
-      <c r="R11">
-        <v>0.003853020276</v>
-      </c>
-      <c r="S11">
-        <v>0.00144731879023159</v>
-      </c>
-      <c r="T11">
-        <v>0.00144731879023159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.01178333333333333</v>
-      </c>
-      <c r="H12">
-        <v>0.03535</v>
-      </c>
-      <c r="I12">
-        <v>0.2720779520650217</v>
-      </c>
-      <c r="J12">
-        <v>0.2720779520650217</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.2171733333333334</v>
-      </c>
-      <c r="N12">
-        <v>0.6515200000000001</v>
-      </c>
-      <c r="O12">
-        <v>0.03179704241434194</v>
-      </c>
-      <c r="P12">
-        <v>0.03179704241434193</v>
-      </c>
-      <c r="Q12">
-        <v>0.002559025777777778</v>
-      </c>
-      <c r="R12">
-        <v>0.023031232</v>
-      </c>
-      <c r="S12">
-        <v>0.008651274181818788</v>
-      </c>
-      <c r="T12">
-        <v>0.008651274181818786</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.01178333333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.03535</v>
-      </c>
-      <c r="I13">
-        <v>0.2720779520650217</v>
-      </c>
-      <c r="J13">
-        <v>0.2720779520650217</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>5.467658</v>
-      </c>
-      <c r="N13">
-        <v>16.402974</v>
-      </c>
-      <c r="O13">
-        <v>0.8005372973958559</v>
-      </c>
-      <c r="P13">
-        <v>0.8005372973958557</v>
-      </c>
-      <c r="Q13">
-        <v>0.06442723676666667</v>
-      </c>
-      <c r="R13">
-        <v>0.5798451309</v>
-      </c>
-      <c r="S13">
-        <v>0.2178085484271317</v>
-      </c>
-      <c r="T13">
-        <v>0.2178085484271316</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.01178333333333333</v>
-      </c>
-      <c r="H14">
-        <v>0.03535</v>
-      </c>
-      <c r="I14">
-        <v>0.2720779520650217</v>
-      </c>
-      <c r="J14">
-        <v>0.2720779520650217</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.01599466666666667</v>
-      </c>
-      <c r="N14">
-        <v>0.047984</v>
-      </c>
-      <c r="O14">
-        <v>0.002341830309445272</v>
-      </c>
-      <c r="P14">
-        <v>0.002341830309445271</v>
-      </c>
-      <c r="Q14">
-        <v>0.0001884704888888889</v>
-      </c>
-      <c r="R14">
-        <v>0.0016962344</v>
-      </c>
-      <c r="S14">
-        <v>0.0006371603946776656</v>
-      </c>
-      <c r="T14">
-        <v>0.0006371603946776653</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.01178333333333333</v>
-      </c>
-      <c r="H15">
-        <v>0.03535</v>
-      </c>
-      <c r="I15">
-        <v>0.2720779520650217</v>
-      </c>
-      <c r="J15">
-        <v>0.2720779520650217</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1.108915333333333</v>
-      </c>
-      <c r="N15">
-        <v>3.326746</v>
-      </c>
-      <c r="O15">
-        <v>0.1623598410850663</v>
-      </c>
-      <c r="P15">
-        <v>0.1623598410850662</v>
-      </c>
-      <c r="Q15">
-        <v>0.01306671901111111</v>
-      </c>
-      <c r="R15">
-        <v>0.1176004711</v>
-      </c>
-      <c r="S15">
-        <v>0.04417453306002719</v>
-      </c>
-      <c r="T15">
-        <v>0.04417453306002719</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.01178333333333333</v>
-      </c>
-      <c r="H16">
-        <v>0.03535</v>
-      </c>
-      <c r="I16">
-        <v>0.2720779520650217</v>
-      </c>
-      <c r="J16">
-        <v>0.2720779520650217</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>0.020244</v>
-      </c>
-      <c r="N16">
-        <v>0.060732</v>
-      </c>
-      <c r="O16">
-        <v>0.002963988795290727</v>
-      </c>
-      <c r="P16">
-        <v>0.002963988795290726</v>
-      </c>
-      <c r="Q16">
-        <v>0.0002385418</v>
-      </c>
-      <c r="R16">
-        <v>0.0021468762</v>
-      </c>
-      <c r="S16">
-        <v>0.0008064360013663718</v>
-      </c>
-      <c r="T16">
-        <v>0.0008064360013663715</v>
+        <v>0.02642844911326215</v>
       </c>
     </row>
   </sheetData>
